--- a/masterdata/HomePage.xlsx
+++ b/masterdata/HomePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Test Case</t>
   </si>
@@ -51,55 +51,10 @@
     <t>Validate the webpage title</t>
   </si>
   <si>
-    <t>SETTEXT</t>
-  </si>
-  <si>
-    <t>.//*[@id='j_id0:o2Template:j_id6:j_id8:j_id45:j_id50:ordRec']</t>
-  </si>
-  <si>
-    <t>XPATH</t>
-  </si>
-  <si>
-    <t>j_id0:o2Template:j_id6:j_id8:j_id45:j_id46:servDesc</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Simplicity tariff (within 14 days)</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>j_id0:o2Template:j_id6:j_id8:j_id45:j_id48:servDesc</t>
-  </si>
-  <si>
-    <t>Tarrif</t>
-  </si>
-  <si>
-    <t>.//*[@id='j_id0:o2Template:j_id6:j_id8:j_id45:j_id52:accNo']</t>
-  </si>
-  <si>
-    <t>j_id0:o2Template:j_id6:j_id8:j_id45:j_id54:mobNo</t>
-  </si>
-  <si>
-    <t>.//*[@id='j_id0:o2Template:j_id6:j_id8:j_id45:j_id56:nam']</t>
-  </si>
-  <si>
-    <t>Test Accepta</t>
-  </si>
-  <si>
-    <t>.//*[@id='j_id0:o2Template:j_id6:j_id8:j_id45:j_id58:em']</t>
-  </si>
-  <si>
-    <t>shradha.sahu@accenture.com</t>
-  </si>
-  <si>
-    <t>.//*[@id='j_id0:o2Template:j_id6:j_id8:j_id45:j_id60:adr']</t>
-  </si>
-  <si>
-    <t>sl1 1ep</t>
+    <t>VALIDATETITLE</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -467,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,125 +477,27 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
-        <v>42685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>7899911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>7055555556</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/masterdata/HomePage.xlsx
+++ b/masterdata/HomePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Test Case</t>
   </si>
@@ -48,13 +48,28 @@
     <t>Validate the webpage Title</t>
   </si>
   <si>
-    <t>Validate the webpage title</t>
-  </si>
-  <si>
-    <t>VALIDATETITLE</t>
-  </si>
-  <si>
-    <t>abc</t>
+    <t>//*[@id="gbwa"]/div[1]/a</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
+    <t>Click on the menu</t>
+  </si>
+  <si>
+    <t>//*[@id="gb36"]/span[1]</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>WAIT4ELEMENT</t>
+  </si>
+  <si>
+    <t>http://google.com</t>
+  </si>
+  <si>
+    <t>GOTOURL</t>
   </si>
 </sst>
 </file>
@@ -422,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,33 +486,71 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G5" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
